--- a/Excel/InfiniteModelConfig.xlsx
+++ b/Excel/InfiniteModelConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +44,6 @@
     <t>AttrValueList</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -59,22 +56,85 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>血牛</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>精准</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>坦克</t>
   </si>
   <si>
-    <t>力士</t>
+    <t>2003,2002</t>
+  </si>
+  <si>
+    <t>1000,1000</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>2003,2001</t>
+  </si>
+  <si>
+    <t>1000,200</t>
   </si>
   <si>
     <t>刺客</t>
+  </si>
+  <si>
+    <t>2001,6</t>
+  </si>
+  <si>
+    <t>200,200</t>
+  </si>
+  <si>
+    <t>影舞者</t>
+  </si>
+  <si>
+    <t>31,32</t>
+  </si>
+  <si>
+    <t>50,50</t>
   </si>
 </sst>
 </file>
@@ -726,11 +786,14 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1052,12 +1115,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1068,19 +1131,18 @@
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="6.375" style="2" customWidth="1"/>
-    <col min="14" max="16" width="5.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="10.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="6.375" style="2" customWidth="1"/>
+    <col min="13" max="15" width="5.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.75" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="E1" s="4"/>
@@ -1088,7 +1150,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -1096,9 +1158,8 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="E2" s="4"/>
@@ -1106,7 +1167,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1114,9 +1175,8 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1131,26 +1191,23 @@
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -1161,108 +1218,96 @@
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:17">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
-    <row r="6" customHeight="1" spans="3:18">
+    <row r="6" customHeight="1" spans="3:17">
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
     </row>
-    <row r="7" customHeight="1" spans="3:18">
+    <row r="7" customHeight="1" spans="3:17">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
+      <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
     </row>
-    <row r="8" customHeight="1" spans="3:18">
+    <row r="8" customHeight="1" spans="3:17">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1270,57 +1315,135 @@
         <v>13</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
     </row>
-    <row r="9" customHeight="1" spans="3:18">
+    <row r="9" customHeight="1" spans="3:17">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+    </row>
+    <row r="10" customHeight="1" spans="3:6">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:6">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:6">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:6">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:6">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:6">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 D4 E4 F4 G4 H4 I4 J4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 C3:C4 K3:K4 L3:L4 M3:M4 N3:N4 O3:O4 P3:P4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 D4 E4 F4 G4 H4 I4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 C3:C4 J3:J4 K3:K4 L3:L4 M3:M4 N3:N4 O3:O4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
